--- a/Code/Results/Cases/Case_4_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.69590524421244</v>
+        <v>1.019122443225342</v>
       </c>
       <c r="C2">
-        <v>0.55327911363986</v>
+        <v>0.2999826323890602</v>
       </c>
       <c r="D2">
-        <v>0.2008920941813415</v>
+        <v>0.07890202652542655</v>
       </c>
       <c r="E2">
-        <v>0.04401126509121822</v>
+        <v>0.119416969029484</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3078725441668553</v>
+        <v>0.4792134293640444</v>
       </c>
       <c r="H2">
-        <v>0.253575840170349</v>
+        <v>0.6262227303661376</v>
       </c>
       <c r="I2">
-        <v>0.2100289282062704</v>
+        <v>0.5951951052498465</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1576964762215383</v>
+        <v>0.201913699169971</v>
       </c>
       <c r="M2">
-        <v>0.4428627860525651</v>
+        <v>0.2183375320802696</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.133333896356589</v>
+        <v>2.170888144921818</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.34649626472617</v>
+        <v>0.9088306735465039</v>
       </c>
       <c r="C3">
-        <v>0.5020990922172075</v>
+        <v>0.2828110259101493</v>
       </c>
       <c r="D3">
-        <v>0.1742419765240442</v>
+        <v>0.07152224508635641</v>
       </c>
       <c r="E3">
-        <v>0.04630719532275063</v>
+        <v>0.1208221098505957</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2912182805692609</v>
+        <v>0.4814597945129435</v>
       </c>
       <c r="H3">
-        <v>0.2526541226391146</v>
+        <v>0.6318239643456351</v>
       </c>
       <c r="I3">
-        <v>0.2211824077874489</v>
+        <v>0.6051169995945287</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1432911422007095</v>
+        <v>0.1992950126146198</v>
       </c>
       <c r="M3">
-        <v>0.385489262687976</v>
+        <v>0.2011436947125844</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.095680239332538</v>
+        <v>2.187073318100701</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.13205975883227</v>
+        <v>0.8409903731009649</v>
       </c>
       <c r="C4">
-        <v>0.4706674419525712</v>
+        <v>0.2722194315562376</v>
       </c>
       <c r="D4">
-        <v>0.1580272767424731</v>
+        <v>0.0670248107635274</v>
       </c>
       <c r="E4">
-        <v>0.04779215740654097</v>
+        <v>0.1217347141096512</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2820518347434344</v>
+        <v>0.4832916227466981</v>
       </c>
       <c r="H4">
-        <v>0.2527403904799215</v>
+        <v>0.6356278474994568</v>
       </c>
       <c r="I4">
-        <v>0.2288957937195271</v>
+        <v>0.611646899869811</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1346260685629872</v>
+        <v>0.1977887047952507</v>
       </c>
       <c r="M4">
-        <v>0.3503422925839104</v>
+        <v>0.1906086840035925</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.076161124439423</v>
+        <v>2.19872333579562</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.044674812986045</v>
+        <v>0.8133163978711195</v>
       </c>
       <c r="C5">
-        <v>0.4578538828992009</v>
+        <v>0.2678914742377572</v>
       </c>
       <c r="D5">
-        <v>0.1514524987492791</v>
+        <v>0.06520057099160681</v>
       </c>
       <c r="E5">
-        <v>0.04841594080632372</v>
+        <v>0.1221191548503998</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2785670356817818</v>
+        <v>0.4841516484494122</v>
       </c>
       <c r="H5">
-        <v>0.25293246877321</v>
+        <v>0.6372696449720578</v>
       </c>
       <c r="I5">
-        <v>0.2322475515293956</v>
+        <v>0.614417838195811</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1311373093547061</v>
+        <v>0.1972004707197854</v>
       </c>
       <c r="M5">
-        <v>0.3360348376689899</v>
+        <v>0.1863214146747865</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.069063986280156</v>
+        <v>2.203900773003937</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.030163863289431</v>
+        <v>0.808719488668828</v>
       </c>
       <c r="C6">
-        <v>0.4557258168169369</v>
+        <v>0.2671721170021897</v>
       </c>
       <c r="D6">
-        <v>0.1503626177213562</v>
+        <v>0.06489817101962103</v>
       </c>
       <c r="E6">
-        <v>0.04852063812801932</v>
+        <v>0.122183749164873</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2780030761818679</v>
+        <v>0.4843013051015532</v>
       </c>
       <c r="H6">
-        <v>0.252973640490481</v>
+        <v>0.6375478010100437</v>
       </c>
       <c r="I6">
-        <v>0.2328164439959366</v>
+        <v>0.6148845869980235</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1305604781417955</v>
+        <v>0.1971043426565728</v>
       </c>
       <c r="M6">
-        <v>0.3336598734206433</v>
+        <v>0.1856098775143948</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.067935908206394</v>
+        <v>2.204786433422399</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.130881289310707</v>
+        <v>0.840617265133119</v>
       </c>
       <c r="C7">
-        <v>0.4704946576953262</v>
+        <v>0.2721611105578461</v>
       </c>
       <c r="D7">
-        <v>0.1579384798134811</v>
+        <v>0.06700017399677449</v>
       </c>
       <c r="E7">
-        <v>0.04780049481086635</v>
+        <v>0.1217398479906582</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2820038431473861</v>
+        <v>0.483302761973448</v>
       </c>
       <c r="H7">
-        <v>0.2527423546430398</v>
+        <v>0.6356496181601656</v>
       </c>
       <c r="I7">
-        <v>0.2289401641784465</v>
+        <v>0.6116838247149499</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1345788502730159</v>
+        <v>0.1977806679417995</v>
       </c>
       <c r="M7">
-        <v>0.3501492820602579</v>
+        <v>0.1905508403967957</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.076062001872842</v>
+        <v>2.198791420432059</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.575391573063939</v>
+        <v>0.9811199667066148</v>
       </c>
       <c r="C8">
-        <v>0.5356316798263094</v>
+        <v>0.2940720398292456</v>
       </c>
       <c r="D8">
-        <v>0.1916694994344113</v>
+        <v>0.07635046830709769</v>
       </c>
       <c r="E8">
-        <v>0.04478711619458176</v>
+        <v>0.1198911253231126</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3019005501008181</v>
+        <v>0.4798938939242845</v>
       </c>
       <c r="H8">
-        <v>0.253118297515968</v>
+        <v>0.628078327640381</v>
       </c>
       <c r="I8">
-        <v>0.2136895219017525</v>
+        <v>0.5985252213346755</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1526903924034571</v>
+        <v>0.2009897263537539</v>
       </c>
       <c r="M8">
-        <v>0.4230605127904283</v>
+        <v>0.2124046785815139</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.119573853737506</v>
+        <v>2.176113051049697</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.449186496343998</v>
+        <v>1.255619955440977</v>
       </c>
       <c r="C9">
-        <v>0.6634717221578796</v>
+        <v>0.3366455048788453</v>
       </c>
       <c r="D9">
-        <v>0.2592129143060617</v>
+        <v>0.09495509251310352</v>
       </c>
       <c r="E9">
-        <v>0.03948762711150544</v>
+        <v>0.1166605978202429</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3500755748593463</v>
+        <v>0.4768120221992831</v>
       </c>
       <c r="H9">
-        <v>0.2593677837635227</v>
+        <v>0.6161260269462048</v>
       </c>
       <c r="I9">
-        <v>0.1910756685381614</v>
+        <v>0.5762012167079398</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.189774149485352</v>
+        <v>0.2080867307858796</v>
       </c>
       <c r="M9">
-        <v>0.5669292871296392</v>
+        <v>0.2554249684353636</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.23576965856185</v>
+        <v>2.14525539860972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.094458481783988</v>
+        <v>1.456599289954056</v>
       </c>
       <c r="C10">
-        <v>0.7577130090436413</v>
+        <v>0.3676715105706592</v>
       </c>
       <c r="D10">
-        <v>0.3100140160969431</v>
+        <v>0.1087901012453898</v>
       </c>
       <c r="E10">
-        <v>0.03598390093721693</v>
+        <v>0.1145268486284626</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3921630602873023</v>
+        <v>0.4767617472620174</v>
       </c>
       <c r="H10">
-        <v>0.2678174153623161</v>
+        <v>0.6091114739449353</v>
       </c>
       <c r="I10">
-        <v>0.1795352345171182</v>
+        <v>0.5619292673487593</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2181838229738133</v>
+        <v>0.2137893374267179</v>
       </c>
       <c r="M10">
-        <v>0.6735552922275474</v>
+        <v>0.2871221465328802</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.343354974700304</v>
+        <v>2.130925810033716</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.389212849699732</v>
+        <v>1.54786533797369</v>
       </c>
       <c r="C11">
-        <v>0.8007166253386799</v>
+        <v>0.381728709278832</v>
       </c>
       <c r="D11">
-        <v>0.3334578043165664</v>
+        <v>0.1151206752861071</v>
       </c>
       <c r="E11">
-        <v>0.0344788108387285</v>
+        <v>0.1136079962466221</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4130275842872777</v>
+        <v>0.4772234163734339</v>
       </c>
       <c r="H11">
-        <v>0.2726177359693764</v>
+        <v>0.6063044594087614</v>
       </c>
       <c r="I11">
-        <v>0.175536026838806</v>
+        <v>0.5559006902557222</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2314107534903798</v>
+        <v>0.2164893477050072</v>
       </c>
       <c r="M11">
-        <v>0.7223558492588396</v>
+        <v>0.3015596127715341</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.397931600519456</v>
+        <v>2.126227265008851</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.501046518159967</v>
+        <v>1.582400779236764</v>
       </c>
       <c r="C12">
-        <v>0.8170255166820084</v>
+        <v>0.387043383963686</v>
       </c>
       <c r="D12">
-        <v>0.3423902535290324</v>
+        <v>0.1175232269217048</v>
       </c>
       <c r="E12">
-        <v>0.0339220151471098</v>
+        <v>0.1132674853748142</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4211993216244139</v>
+        <v>0.4774682041188214</v>
       </c>
       <c r="H12">
-        <v>0.2745837124151649</v>
+        <v>0.6052967620002363</v>
       </c>
       <c r="I12">
-        <v>0.1742148903785967</v>
+        <v>0.553684672237889</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2364674687552082</v>
+        <v>0.2175269510048707</v>
       </c>
       <c r="M12">
-        <v>0.7408860463657945</v>
+        <v>0.3070290957004218</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.419481413233797</v>
+        <v>2.12471046599606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.476950805571335</v>
+        <v>1.57496409827246</v>
       </c>
       <c r="C13">
-        <v>0.8135119332892486</v>
+        <v>0.3858991561120604</v>
       </c>
       <c r="D13">
-        <v>0.3404639410513539</v>
+        <v>0.1170055589234806</v>
       </c>
       <c r="E13">
-        <v>0.03404133990340019</v>
+        <v>0.1133404898138224</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4194269531141117</v>
+        <v>0.4774123684893112</v>
       </c>
       <c r="H13">
-        <v>0.2741535350676401</v>
+        <v>0.6055113292904224</v>
       </c>
       <c r="I13">
-        <v>0.1744906004800733</v>
+        <v>0.5541589543192025</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2353762086494555</v>
+        <v>0.2173028108495032</v>
       </c>
       <c r="M13">
-        <v>0.7368928583674048</v>
+        <v>0.3058510458869677</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.414799801155084</v>
+        <v>2.125025452452832</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.398408881955902</v>
+        <v>1.550707102311947</v>
       </c>
       <c r="C14">
-        <v>0.8020578477798495</v>
+        <v>0.3821661226221522</v>
       </c>
       <c r="D14">
-        <v>0.3341915437173242</v>
+        <v>0.1153182285050747</v>
       </c>
       <c r="E14">
-        <v>0.03443273711627848</v>
+        <v>0.1135798331906821</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4136943093237164</v>
+        <v>0.4772421513930283</v>
       </c>
       <c r="H14">
-        <v>0.2727764441203391</v>
+        <v>0.6062204478095481</v>
       </c>
       <c r="I14">
-        <v>0.1754233822086206</v>
+        <v>0.5557170358573202</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2318257851394065</v>
+        <v>0.216574408280664</v>
       </c>
       <c r="M14">
-        <v>0.723879280210447</v>
+        <v>0.3020095454721101</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.399686389563101</v>
+        <v>2.126097213309208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.350329183576321</v>
+        <v>1.535845674368204</v>
       </c>
       <c r="C15">
-        <v>0.795045225296434</v>
+        <v>0.3798784175510548</v>
       </c>
       <c r="D15">
-        <v>0.3303568637934262</v>
+        <v>0.1142853797741736</v>
       </c>
       <c r="E15">
-        <v>0.03467420338990856</v>
+        <v>0.1137274063386604</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4102188960498978</v>
+        <v>0.4771470083383917</v>
       </c>
       <c r="H15">
-        <v>0.2719525654151056</v>
+        <v>0.6066620010256827</v>
       </c>
       <c r="I15">
-        <v>0.1760203234206834</v>
+        <v>0.5566801199611753</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2296574292682294</v>
+        <v>0.2161302143540667</v>
       </c>
       <c r="M15">
-        <v>0.7159149088390819</v>
+        <v>0.299656809880247</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.390546199060879</v>
+        <v>2.126787896121868</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.075223558199639</v>
+        <v>1.450631442639235</v>
       </c>
       <c r="C16">
-        <v>0.7549057330594167</v>
+        <v>0.3667516706273943</v>
       </c>
       <c r="D16">
-        <v>0.3084891988036134</v>
+        <v>0.1083771258719537</v>
       </c>
       <c r="E16">
-        <v>0.03608408078141534</v>
+        <v>0.1145879392739745</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3908360822820782</v>
+        <v>0.4767413508957787</v>
       </c>
       <c r="H16">
-        <v>0.2675238440865115</v>
+        <v>0.6093026489141948</v>
       </c>
       <c r="I16">
-        <v>0.179822885153115</v>
+        <v>0.562332597264934</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2173258793258555</v>
+        <v>0.2136150109629682</v>
       </c>
       <c r="M16">
-        <v>0.6703726792558342</v>
+        <v>0.2861789660908585</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.339907739735253</v>
+        <v>2.13126955652362</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.906795406006779</v>
+        <v>1.398312777291096</v>
       </c>
       <c r="C17">
-        <v>0.7303190669029789</v>
+        <v>0.3586840820830162</v>
       </c>
       <c r="D17">
-        <v>0.2951643231596535</v>
+        <v>0.1047620598268679</v>
       </c>
       <c r="E17">
-        <v>0.03697199823012198</v>
+        <v>0.1151291084232102</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3794018541533291</v>
+        <v>0.4766168005909179</v>
       </c>
       <c r="H17">
-        <v>0.2650592983059568</v>
+        <v>0.6110209714555168</v>
       </c>
       <c r="I17">
-        <v>0.1824852139724626</v>
+        <v>0.5659191278104601</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2098415421947095</v>
+        <v>0.2120990905284117</v>
       </c>
       <c r="M17">
-        <v>0.6425152298457206</v>
+        <v>0.27791520982489</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.310336004559815</v>
+        <v>2.134485581328164</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.810031844801756</v>
+        <v>1.368205477582308</v>
       </c>
       <c r="C18">
-        <v>0.7161896237918199</v>
+        <v>0.3540385024360262</v>
       </c>
       <c r="D18">
-        <v>0.2875312237485446</v>
+        <v>0.1026862491108318</v>
       </c>
       <c r="E18">
-        <v>0.03749103635903328</v>
+        <v>0.1154452509540742</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3729854494238083</v>
+        <v>0.4765907526397086</v>
       </c>
       <c r="H18">
-        <v>0.2637311093235724</v>
+        <v>0.612045440612448</v>
       </c>
       <c r="I18">
-        <v>0.1841333684993138</v>
+        <v>0.5680256501163718</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2055650117466712</v>
+        <v>0.2112371410992466</v>
       </c>
       <c r="M18">
-        <v>0.6265196975085701</v>
+        <v>0.2731638522925337</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.293852931524725</v>
+        <v>2.136506623589611</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.777287363478763</v>
+        <v>1.358009149011593</v>
       </c>
       <c r="C19">
-        <v>0.7114075720449478</v>
+        <v>0.352464686039923</v>
       </c>
       <c r="D19">
-        <v>0.2849519166004626</v>
+        <v>0.1019840133202621</v>
       </c>
       <c r="E19">
-        <v>0.03766819333726557</v>
+        <v>0.1155531292165748</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3708397969026578</v>
+        <v>0.4765897545999422</v>
       </c>
       <c r="H19">
-        <v>0.2632964416520878</v>
+        <v>0.6123985131086442</v>
       </c>
       <c r="I19">
-        <v>0.184711080497955</v>
+        <v>0.5687463729540241</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2041217782625324</v>
+        <v>0.2109470135190605</v>
       </c>
       <c r="M19">
-        <v>0.6211083480265742</v>
+        <v>0.2715554316324287</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.288360230663244</v>
+        <v>2.137220307639865</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.92471300277208</v>
+        <v>1.403883753867945</v>
       </c>
       <c r="C20">
-        <v>0.7329350645993031</v>
+        <v>0.3595434432519369</v>
       </c>
       <c r="D20">
-        <v>0.2965795214326619</v>
+        <v>0.105146529747131</v>
       </c>
       <c r="E20">
-        <v>0.03687661291004574</v>
+        <v>0.1150709954346273</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3806022949755459</v>
+        <v>0.4766253386907948</v>
       </c>
       <c r="H20">
-        <v>0.2653123310585812</v>
+        <v>0.610834312851992</v>
       </c>
       <c r="I20">
-        <v>0.1821896162401728</v>
+        <v>0.5655328171405039</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2106353070198139</v>
+        <v>0.2122594316070945</v>
       </c>
       <c r="M20">
-        <v>0.6454778181726013</v>
+        <v>0.2787947232307033</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.313429038996048</v>
+        <v>2.134125499003403</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.421472322500506</v>
+        <v>1.557832664861564</v>
       </c>
       <c r="C21">
-        <v>0.8054214851698021</v>
+        <v>0.383262837845848</v>
       </c>
       <c r="D21">
-        <v>0.3360323555254894</v>
+        <v>0.1158136946077946</v>
       </c>
       <c r="E21">
-        <v>0.03431741423462564</v>
+        <v>0.113509330439853</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4153705794648488</v>
+        <v>0.4772902472055023</v>
       </c>
       <c r="H21">
-        <v>0.2731768182778893</v>
+        <v>0.6060106624429835</v>
       </c>
       <c r="I21">
-        <v>0.1751440442752177</v>
+        <v>0.5552575731971068</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2328672925555679</v>
+        <v>0.21678794655773</v>
       </c>
       <c r="M21">
-        <v>0.7277002470150933</v>
+        <v>0.3031378264538134</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.404101001536759</v>
+        <v>2.125775282991782</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.747417446528573</v>
+        <v>1.658300383794312</v>
       </c>
       <c r="C22">
-        <v>0.852940284716766</v>
+        <v>0.3987152462821086</v>
       </c>
       <c r="D22">
-        <v>0.3621399405651005</v>
+        <v>0.1228161926543407</v>
       </c>
       <c r="E22">
-        <v>0.03272166769513707</v>
+        <v>0.1125320451296147</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4396843032249365</v>
+        <v>0.4781327371164537</v>
       </c>
       <c r="H22">
-        <v>0.279186049721929</v>
+        <v>0.603180236422574</v>
       </c>
       <c r="I22">
-        <v>0.1716728571325348</v>
+        <v>0.5489319785686462</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2476790036799912</v>
+        <v>0.2198359779356025</v>
       </c>
       <c r="M22">
-        <v>0.7817357667737355</v>
+        <v>0.3190608828283743</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.468543681588812</v>
+        <v>2.121847952439282</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.57332226357147</v>
+        <v>1.604692945717375</v>
       </c>
       <c r="C23">
-        <v>0.8275635058071771</v>
+        <v>0.3904726505775216</v>
       </c>
       <c r="D23">
-        <v>0.3481739292153065</v>
+        <v>0.1190760061200962</v>
       </c>
       <c r="E23">
-        <v>0.03356618451417037</v>
+        <v>0.1130496772681364</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4265537979233187</v>
+        <v>0.4776456639822584</v>
       </c>
       <c r="H23">
-        <v>0.2758955398973768</v>
+        <v>0.6046613993821524</v>
       </c>
       <c r="I23">
-        <v>0.1734170859362969</v>
+        <v>0.5522723352940062</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2397464039669615</v>
+        <v>0.2182011172723861</v>
       </c>
       <c r="M23">
-        <v>0.7528658991875332</v>
+        <v>0.3105613170188661</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.433649797601191</v>
+        <v>2.123803810607257</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.916612248489514</v>
+        <v>1.401365204303488</v>
       </c>
       <c r="C24">
-        <v>0.7317523544958533</v>
+        <v>0.3591549491428623</v>
       </c>
       <c r="D24">
-        <v>0.2959396249887902</v>
+        <v>0.1049727029884622</v>
       </c>
       <c r="E24">
-        <v>0.03691970997160332</v>
+        <v>0.115097252687949</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.38005908753874</v>
+        <v>0.4766213367286127</v>
       </c>
       <c r="H24">
-        <v>0.2651976594315784</v>
+        <v>0.6109185872562506</v>
       </c>
       <c r="I24">
-        <v>0.1823228908500596</v>
+        <v>0.5657073293489638</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2102763643039793</v>
+        <v>0.2121869115815826</v>
       </c>
       <c r="M24">
-        <v>0.6441383700182541</v>
+        <v>0.2783970964873674</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.312029069741584</v>
+        <v>2.134287756173023</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.212377612776152</v>
+        <v>1.181477577422982</v>
       </c>
       <c r="C25">
-        <v>0.6288513935865865</v>
+        <v>0.3251717320965213</v>
       </c>
       <c r="D25">
-        <v>0.2407587343363957</v>
+        <v>0.08989303258667292</v>
       </c>
       <c r="E25">
-        <v>0.04085419014300562</v>
+        <v>0.1174923742754274</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3359522427556669</v>
+        <v>0.4772582131164711</v>
       </c>
       <c r="H25">
-        <v>0.2570375821998283</v>
+        <v>0.6190493118076716</v>
       </c>
       <c r="I25">
-        <v>0.1963501273059691</v>
+        <v>0.581867066373988</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1795534912750583</v>
+        <v>0.2060809034196041</v>
       </c>
       <c r="M25">
-        <v>0.5278758137081141</v>
+        <v>0.2437702612591437</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.200693375599997</v>
+        <v>2.152141348619523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_97/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_97/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019122443225342</v>
+        <v>2.695905244212327</v>
       </c>
       <c r="C2">
-        <v>0.2999826323890602</v>
+        <v>0.5532791136401158</v>
       </c>
       <c r="D2">
-        <v>0.07890202652542655</v>
+        <v>0.200892094181242</v>
       </c>
       <c r="E2">
-        <v>0.119416969029484</v>
+        <v>0.04401126509123432</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4792134293640444</v>
+        <v>0.3078725441668553</v>
       </c>
       <c r="H2">
-        <v>0.6262227303661376</v>
+        <v>0.2535758401703418</v>
       </c>
       <c r="I2">
-        <v>0.5951951052498465</v>
+        <v>0.2100289282062704</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.201913699169971</v>
+        <v>0.1576964762216022</v>
       </c>
       <c r="M2">
-        <v>0.2183375320802696</v>
+        <v>0.4428627860525509</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.170888144921818</v>
+        <v>1.133333896356646</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9088306735465039</v>
+        <v>2.346496264726341</v>
       </c>
       <c r="C3">
-        <v>0.2828110259101493</v>
+        <v>0.5020990922170654</v>
       </c>
       <c r="D3">
-        <v>0.07152224508635641</v>
+        <v>0.1742419765241294</v>
       </c>
       <c r="E3">
-        <v>0.1208221098505957</v>
+        <v>0.04630719532276573</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4814597945129435</v>
+        <v>0.2912182805692893</v>
       </c>
       <c r="H3">
-        <v>0.6318239643456351</v>
+        <v>0.2526541226391146</v>
       </c>
       <c r="I3">
-        <v>0.6051169995945287</v>
+        <v>0.2211824077874489</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1992950126146198</v>
+        <v>0.1432911422006669</v>
       </c>
       <c r="M3">
-        <v>0.2011436947125844</v>
+        <v>0.3854892626879831</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.187073318100701</v>
+        <v>1.09568023933258</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8409903731009649</v>
+        <v>2.132059758832384</v>
       </c>
       <c r="C4">
-        <v>0.2722194315562376</v>
+        <v>0.4706674419522585</v>
       </c>
       <c r="D4">
-        <v>0.0670248107635274</v>
+        <v>0.158027276742601</v>
       </c>
       <c r="E4">
-        <v>0.1217347141096512</v>
+        <v>0.04779215740651432</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4832916227466981</v>
+        <v>0.2820518347434913</v>
       </c>
       <c r="H4">
-        <v>0.6356278474994568</v>
+        <v>0.2527403904799215</v>
       </c>
       <c r="I4">
-        <v>0.611646899869811</v>
+        <v>0.2288957937195235</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1977887047952507</v>
+        <v>0.1346260685630583</v>
       </c>
       <c r="M4">
-        <v>0.1906086840035925</v>
+        <v>0.3503422925839175</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.19872333579562</v>
+        <v>1.076161124439381</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8133163978711195</v>
+        <v>2.044674812985988</v>
       </c>
       <c r="C5">
-        <v>0.2678914742377572</v>
+        <v>0.4578538828989167</v>
       </c>
       <c r="D5">
-        <v>0.06520057099160681</v>
+        <v>0.1514524987490091</v>
       </c>
       <c r="E5">
-        <v>0.1221191548503998</v>
+        <v>0.04841594080631995</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4841516484494122</v>
+        <v>0.2785670356817747</v>
       </c>
       <c r="H5">
-        <v>0.6372696449720578</v>
+        <v>0.2529324687730892</v>
       </c>
       <c r="I5">
-        <v>0.614417838195811</v>
+        <v>0.2322475515294062</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1972004707197854</v>
+        <v>0.1311373093546919</v>
       </c>
       <c r="M5">
-        <v>0.1863214146747865</v>
+        <v>0.3360348376689899</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.203900773003937</v>
+        <v>1.06906398628017</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.808719488668828</v>
+        <v>2.030163863289317</v>
       </c>
       <c r="C6">
-        <v>0.2671721170021897</v>
+        <v>0.4557258168169369</v>
       </c>
       <c r="D6">
-        <v>0.06489817101962103</v>
+        <v>0.1503626177212425</v>
       </c>
       <c r="E6">
-        <v>0.122183749164873</v>
+        <v>0.04852063812801899</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4843013051015532</v>
+        <v>0.2780030761818679</v>
       </c>
       <c r="H6">
-        <v>0.6375478010100437</v>
+        <v>0.2529736404905947</v>
       </c>
       <c r="I6">
-        <v>0.6148845869980235</v>
+        <v>0.2328164439959224</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1971043426565728</v>
+        <v>0.1305604781418594</v>
       </c>
       <c r="M6">
-        <v>0.1856098775143948</v>
+        <v>0.3336598734206575</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.204786433422399</v>
+        <v>1.067935908206408</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.840617265133119</v>
+        <v>2.130881289310707</v>
       </c>
       <c r="C7">
-        <v>0.2721611105578461</v>
+        <v>0.4704946576954967</v>
       </c>
       <c r="D7">
-        <v>0.06700017399677449</v>
+        <v>0.1579384798134669</v>
       </c>
       <c r="E7">
-        <v>0.1217398479906582</v>
+        <v>0.04780049481086657</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.483302761973448</v>
+        <v>0.2820038431473151</v>
       </c>
       <c r="H7">
-        <v>0.6356496181601656</v>
+        <v>0.2527423546431464</v>
       </c>
       <c r="I7">
-        <v>0.6116838247149499</v>
+        <v>0.2289401641784252</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1977806679417995</v>
+        <v>0.1345788502730159</v>
       </c>
       <c r="M7">
-        <v>0.1905508403967957</v>
+        <v>0.3501492820602792</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.198791420432059</v>
+        <v>1.076062001872813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9811199667066148</v>
+        <v>2.575391573063769</v>
       </c>
       <c r="C8">
-        <v>0.2940720398292456</v>
+        <v>0.5356316798263379</v>
       </c>
       <c r="D8">
-        <v>0.07635046830709769</v>
+        <v>0.1916694994343686</v>
       </c>
       <c r="E8">
-        <v>0.1198911253231126</v>
+        <v>0.04478711619456666</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4798938939242845</v>
+        <v>0.3019005501008252</v>
       </c>
       <c r="H8">
-        <v>0.628078327640381</v>
+        <v>0.2531182975160817</v>
       </c>
       <c r="I8">
-        <v>0.5985252213346755</v>
+        <v>0.2136895219017312</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2009897263537539</v>
+        <v>0.1526903924034499</v>
       </c>
       <c r="M8">
-        <v>0.2124046785815139</v>
+        <v>0.4230605127904212</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.176113051049697</v>
+        <v>1.119573853737506</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.255619955440977</v>
+        <v>3.449186496343827</v>
       </c>
       <c r="C9">
-        <v>0.3366455048788453</v>
+        <v>0.6634717221577944</v>
       </c>
       <c r="D9">
-        <v>0.09495509251310352</v>
+        <v>0.2592129143060617</v>
       </c>
       <c r="E9">
-        <v>0.1166605978202429</v>
+        <v>0.03948762711150677</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4768120221992831</v>
+        <v>0.3500755748594173</v>
       </c>
       <c r="H9">
-        <v>0.6161260269462048</v>
+        <v>0.2593677837635227</v>
       </c>
       <c r="I9">
-        <v>0.5762012167079398</v>
+        <v>0.1910756685381649</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2080867307858796</v>
+        <v>0.1897741494852809</v>
       </c>
       <c r="M9">
-        <v>0.2554249684353636</v>
+        <v>0.5669292871296321</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.14525539860972</v>
+        <v>1.23576965856185</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.456599289954056</v>
+        <v>4.094458481783988</v>
       </c>
       <c r="C10">
-        <v>0.3676715105706592</v>
+        <v>0.7577130090436413</v>
       </c>
       <c r="D10">
-        <v>0.1087901012453898</v>
+        <v>0.3100140160969573</v>
       </c>
       <c r="E10">
-        <v>0.1145268486284626</v>
+        <v>0.03598390093721493</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4767617472620174</v>
+        <v>0.3921630602873165</v>
       </c>
       <c r="H10">
-        <v>0.6091114739449353</v>
+        <v>0.2678174153623161</v>
       </c>
       <c r="I10">
-        <v>0.5619292673487593</v>
+        <v>0.1795352345171111</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2137893374267179</v>
+        <v>0.218183822973856</v>
       </c>
       <c r="M10">
-        <v>0.2871221465328802</v>
+        <v>0.6735552922275474</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.130925810033716</v>
+        <v>1.343354974700418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.54786533797369</v>
+        <v>4.389212849699618</v>
       </c>
       <c r="C11">
-        <v>0.381728709278832</v>
+        <v>0.8007166253386799</v>
       </c>
       <c r="D11">
-        <v>0.1151206752861071</v>
+        <v>0.3334578043165095</v>
       </c>
       <c r="E11">
-        <v>0.1136079962466221</v>
+        <v>0.03447881083873916</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4772234163734339</v>
+        <v>0.4130275842873772</v>
       </c>
       <c r="H11">
-        <v>0.6063044594087614</v>
+        <v>0.2726177359692485</v>
       </c>
       <c r="I11">
-        <v>0.5559006902557222</v>
+        <v>0.1755360268387953</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2164893477050072</v>
+        <v>0.2314107534904508</v>
       </c>
       <c r="M11">
-        <v>0.3015596127715341</v>
+        <v>0.7223558492588467</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.126227265008851</v>
+        <v>1.397931600519513</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.582400779236764</v>
+        <v>4.501046518160024</v>
       </c>
       <c r="C12">
-        <v>0.387043383963686</v>
+        <v>0.8170255166816105</v>
       </c>
       <c r="D12">
-        <v>0.1175232269217048</v>
+        <v>0.3423902535291319</v>
       </c>
       <c r="E12">
-        <v>0.1132674853748142</v>
+        <v>0.03392201514710913</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4774682041188214</v>
+        <v>0.4211993216244565</v>
       </c>
       <c r="H12">
-        <v>0.6052967620002363</v>
+        <v>0.2745837124151507</v>
       </c>
       <c r="I12">
-        <v>0.553684672237889</v>
+        <v>0.1742148903785825</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2175269510048707</v>
+        <v>0.2364674687552935</v>
       </c>
       <c r="M12">
-        <v>0.3070290957004218</v>
+        <v>0.7408860463657803</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.12471046599606</v>
+        <v>1.419481413233768</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.57496409827246</v>
+        <v>4.476950805571335</v>
       </c>
       <c r="C13">
-        <v>0.3858991561120604</v>
+        <v>0.813511933288936</v>
       </c>
       <c r="D13">
-        <v>0.1170055589234806</v>
+        <v>0.3404639410512544</v>
       </c>
       <c r="E13">
-        <v>0.1133404898138224</v>
+        <v>0.03404133990341363</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4774123684893112</v>
+        <v>0.4194269531141259</v>
       </c>
       <c r="H13">
-        <v>0.6055113292904224</v>
+        <v>0.2741535350677538</v>
       </c>
       <c r="I13">
-        <v>0.5541589543192025</v>
+        <v>0.174490600480091</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2173028108495032</v>
+        <v>0.2353762086494839</v>
       </c>
       <c r="M13">
-        <v>0.3058510458869677</v>
+        <v>0.7368928583674119</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.125025452452832</v>
+        <v>1.414799801155084</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.550707102311947</v>
+        <v>4.398408881956016</v>
       </c>
       <c r="C14">
-        <v>0.3821661226221522</v>
+        <v>0.8020578477797073</v>
       </c>
       <c r="D14">
-        <v>0.1153182285050747</v>
+        <v>0.3341915437170826</v>
       </c>
       <c r="E14">
-        <v>0.1135798331906821</v>
+        <v>0.03443273711632222</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4772421513930283</v>
+        <v>0.4136943093237448</v>
       </c>
       <c r="H14">
-        <v>0.6062204478095481</v>
+        <v>0.2727764441203249</v>
       </c>
       <c r="I14">
-        <v>0.5557170358573202</v>
+        <v>0.1754233822086064</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.216574408280664</v>
+        <v>0.2318257851393355</v>
       </c>
       <c r="M14">
-        <v>0.3020095454721101</v>
+        <v>0.7238792802104399</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.126097213309208</v>
+        <v>1.399686389563044</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.535845674368204</v>
+        <v>4.350329183576321</v>
       </c>
       <c r="C15">
-        <v>0.3798784175510548</v>
+        <v>0.795045225296235</v>
       </c>
       <c r="D15">
-        <v>0.1142853797741736</v>
+        <v>0.3303568637933552</v>
       </c>
       <c r="E15">
-        <v>0.1137274063386604</v>
+        <v>0.03467420338989269</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4771470083383917</v>
+        <v>0.4102188960499404</v>
       </c>
       <c r="H15">
-        <v>0.6066620010256827</v>
+        <v>0.2719525654149777</v>
       </c>
       <c r="I15">
-        <v>0.5566801199611753</v>
+        <v>0.1760203234206621</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2161302143540667</v>
+        <v>0.2296574292681157</v>
       </c>
       <c r="M15">
-        <v>0.299656809880247</v>
+        <v>0.7159149088390677</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.126787896121868</v>
+        <v>1.39054619906085</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.450631442639235</v>
+        <v>4.075223558199696</v>
       </c>
       <c r="C16">
-        <v>0.3667516706273943</v>
+        <v>0.7549057330594451</v>
       </c>
       <c r="D16">
-        <v>0.1083771258719537</v>
+        <v>0.3084891988036702</v>
       </c>
       <c r="E16">
-        <v>0.1145879392739745</v>
+        <v>0.03608408078140624</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4767413508957787</v>
+        <v>0.3908360822821066</v>
       </c>
       <c r="H16">
-        <v>0.6093026489141948</v>
+        <v>0.2675238440865115</v>
       </c>
       <c r="I16">
-        <v>0.562332597264934</v>
+        <v>0.1798228851531043</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2136150109629682</v>
+        <v>0.217325879325756</v>
       </c>
       <c r="M16">
-        <v>0.2861789660908585</v>
+        <v>0.6703726792558271</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.13126955652362</v>
+        <v>1.339907739735224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.398312777291096</v>
+        <v>3.906795406006722</v>
       </c>
       <c r="C17">
-        <v>0.3586840820830162</v>
+        <v>0.7303190669032062</v>
       </c>
       <c r="D17">
-        <v>0.1047620598268679</v>
+        <v>0.295164323159554</v>
       </c>
       <c r="E17">
-        <v>0.1151291084232102</v>
+        <v>0.03697199823013608</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.4766168005909179</v>
+        <v>0.3794018541533291</v>
       </c>
       <c r="H17">
-        <v>0.6110209714555168</v>
+        <v>0.2650592983059568</v>
       </c>
       <c r="I17">
-        <v>0.5659191278104601</v>
+        <v>0.1824852139724591</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2120990905284117</v>
+        <v>0.2098415421946811</v>
       </c>
       <c r="M17">
-        <v>0.27791520982489</v>
+        <v>0.6425152298457206</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.134485581328164</v>
+        <v>1.310336004559815</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.368205477582308</v>
+        <v>3.810031844801927</v>
       </c>
       <c r="C18">
-        <v>0.3540385024360262</v>
+        <v>0.7161896237917915</v>
       </c>
       <c r="D18">
-        <v>0.1026862491108318</v>
+        <v>0.2875312237485446</v>
       </c>
       <c r="E18">
-        <v>0.1154452509540742</v>
+        <v>0.03749103635905748</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4765907526397086</v>
+        <v>0.3729854494237514</v>
       </c>
       <c r="H18">
-        <v>0.612045440612448</v>
+        <v>0.2637311093235581</v>
       </c>
       <c r="I18">
-        <v>0.5680256501163718</v>
+        <v>0.1841333684993245</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2112371410992466</v>
+        <v>0.2055650117467138</v>
       </c>
       <c r="M18">
-        <v>0.2731638522925337</v>
+        <v>0.6265196975085843</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.136506623589611</v>
+        <v>1.293852931524668</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.358009149011593</v>
+        <v>3.777287363478649</v>
       </c>
       <c r="C19">
-        <v>0.352464686039923</v>
+        <v>0.7114075720448056</v>
       </c>
       <c r="D19">
-        <v>0.1019840133202621</v>
+        <v>0.2849519166005621</v>
       </c>
       <c r="E19">
-        <v>0.1155531292165748</v>
+        <v>0.03766819333727556</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4765897545999422</v>
+        <v>0.3708397969026862</v>
       </c>
       <c r="H19">
-        <v>0.6123985131086442</v>
+        <v>0.2632964416519741</v>
       </c>
       <c r="I19">
-        <v>0.5687463729540241</v>
+        <v>0.1847110804979728</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2109470135190605</v>
+        <v>0.2041217782626461</v>
       </c>
       <c r="M19">
-        <v>0.2715554316324287</v>
+        <v>0.6211083480265742</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.137220307639865</v>
+        <v>1.288360230663216</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.403883753867945</v>
+        <v>3.924713002772137</v>
       </c>
       <c r="C20">
-        <v>0.3595434432519369</v>
+        <v>0.7329350645997863</v>
       </c>
       <c r="D20">
-        <v>0.105146529747131</v>
+        <v>0.2965795214327613</v>
       </c>
       <c r="E20">
-        <v>0.1150709954346273</v>
+        <v>0.03687661291004352</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4766253386907948</v>
+        <v>0.3806022949756311</v>
       </c>
       <c r="H20">
-        <v>0.610834312851992</v>
+        <v>0.265312331058567</v>
       </c>
       <c r="I20">
-        <v>0.5655328171405039</v>
+        <v>0.1821896162401728</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2122594316070945</v>
+        <v>0.2106353070197855</v>
       </c>
       <c r="M20">
-        <v>0.2787947232307033</v>
+        <v>0.6454778181725871</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.134125499003403</v>
+        <v>1.313429038996077</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.557832664861564</v>
+        <v>4.421472322500506</v>
       </c>
       <c r="C21">
-        <v>0.383262837845848</v>
+        <v>0.8054214851700578</v>
       </c>
       <c r="D21">
-        <v>0.1158136946077946</v>
+        <v>0.3360323555251625</v>
       </c>
       <c r="E21">
-        <v>0.113509330439853</v>
+        <v>0.03431741423462575</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4772902472055023</v>
+        <v>0.4153705794648346</v>
       </c>
       <c r="H21">
-        <v>0.6060106624429835</v>
+        <v>0.2731768182778751</v>
       </c>
       <c r="I21">
-        <v>0.5552575731971068</v>
+        <v>0.1751440442752177</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.21678794655773</v>
+        <v>0.2328672925555679</v>
       </c>
       <c r="M21">
-        <v>0.3031378264538134</v>
+        <v>0.7277002470150791</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.125775282991782</v>
+        <v>1.404101001536731</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.658300383794312</v>
+        <v>4.747417446528573</v>
       </c>
       <c r="C22">
-        <v>0.3987152462821086</v>
+        <v>0.8529402847166807</v>
       </c>
       <c r="D22">
-        <v>0.1228161926543407</v>
+        <v>0.3621399405648731</v>
       </c>
       <c r="E22">
-        <v>0.1125320451296147</v>
+        <v>0.03272166769512053</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4781327371164537</v>
+        <v>0.4396843032250359</v>
       </c>
       <c r="H22">
-        <v>0.603180236422574</v>
+        <v>0.2791860497220426</v>
       </c>
       <c r="I22">
-        <v>0.5489319785686462</v>
+        <v>0.1716728571325348</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2198359779356025</v>
+        <v>0.2476790036799059</v>
       </c>
       <c r="M22">
-        <v>0.3190608828283743</v>
+        <v>0.7817357667737497</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.121847952439282</v>
+        <v>1.468543681588756</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.604692945717375</v>
+        <v>4.573322263571413</v>
       </c>
       <c r="C23">
-        <v>0.3904726505775216</v>
+        <v>0.827563505807035</v>
       </c>
       <c r="D23">
-        <v>0.1190760061200962</v>
+        <v>0.3481739292153065</v>
       </c>
       <c r="E23">
-        <v>0.1130496772681364</v>
+        <v>0.03356618451418247</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4776456639822584</v>
+        <v>0.4265537979233613</v>
       </c>
       <c r="H23">
-        <v>0.6046613993821524</v>
+        <v>0.2758955398973626</v>
       </c>
       <c r="I23">
-        <v>0.5522723352940062</v>
+        <v>0.1734170859362862</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2182011172723861</v>
+        <v>0.2397464039669472</v>
       </c>
       <c r="M23">
-        <v>0.3105613170188661</v>
+        <v>0.7528658991875474</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.123803810607257</v>
+        <v>1.43364979760122</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401365204303488</v>
+        <v>3.916612248489344</v>
       </c>
       <c r="C24">
-        <v>0.3591549491428623</v>
+        <v>0.7317523544958533</v>
       </c>
       <c r="D24">
-        <v>0.1049727029884622</v>
+        <v>0.2959396249888471</v>
       </c>
       <c r="E24">
-        <v>0.115097252687949</v>
+        <v>0.0369197099715981</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4766213367286127</v>
+        <v>0.3800590875387542</v>
       </c>
       <c r="H24">
-        <v>0.6109185872562506</v>
+        <v>0.2651976594315641</v>
       </c>
       <c r="I24">
-        <v>0.5657073293489638</v>
+        <v>0.1823228908500631</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2121869115815826</v>
+        <v>0.2102763643039793</v>
       </c>
       <c r="M24">
-        <v>0.2783970964873674</v>
+        <v>0.6441383700182683</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.134287756173023</v>
+        <v>1.312029069741556</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.181477577422982</v>
+        <v>3.212377612776322</v>
       </c>
       <c r="C25">
-        <v>0.3251717320965213</v>
+        <v>0.6288513935865581</v>
       </c>
       <c r="D25">
-        <v>0.08989303258667292</v>
+        <v>0.2407587343363531</v>
       </c>
       <c r="E25">
-        <v>0.1174923742754274</v>
+        <v>0.04085419014300506</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4772582131164711</v>
+        <v>0.3359522427557096</v>
       </c>
       <c r="H25">
-        <v>0.6190493118076716</v>
+        <v>0.2570375821997146</v>
       </c>
       <c r="I25">
-        <v>0.581867066373988</v>
+        <v>0.1963501273059798</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2060809034196041</v>
+        <v>0.1795534912751151</v>
       </c>
       <c r="M25">
-        <v>0.2437702612591437</v>
+        <v>0.5278758137081212</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.152141348619523</v>
+        <v>1.200693375600025</v>
       </c>
     </row>
   </sheetData>
